--- a/findex-data/Asia_fibreach_dec2018.xlsx
+++ b/findex-data/Asia_fibreach_dec2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliaprior/Documents/OneDrive - HIP Consult/Amelia/InfraNav/Analysis Tools/FR/fiber reach/2018_asia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krashaldy Muñoz\Documents\investor-data\findex-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FFBD337-AD7E-FF4D-B29E-98E0DC30FFD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DAE7D7-0E8D-46D9-89B4-ED37AD76FFBB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="37420" windowHeight="21140" xr2:uid="{4B4E29BE-9B4F-499A-8DDB-282800A3A925}"/>
+    <workbookView xWindow="28800" yWindow="456" windowWidth="37416" windowHeight="21144" xr2:uid="{4B4E29BE-9B4F-499A-8DDB-282800A3A925}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="16" r:id="rId1"/>
@@ -32,21 +32,21 @@
   </sheets>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId17"/>
-    <pivotCache cacheId="2" r:id="rId18"/>
-    <pivotCache cacheId="3" r:id="rId19"/>
-    <pivotCache cacheId="4" r:id="rId20"/>
-    <pivotCache cacheId="5" r:id="rId21"/>
-    <pivotCache cacheId="6" r:id="rId22"/>
-    <pivotCache cacheId="7" r:id="rId23"/>
-    <pivotCache cacheId="8" r:id="rId24"/>
-    <pivotCache cacheId="9" r:id="rId25"/>
-    <pivotCache cacheId="10" r:id="rId26"/>
-    <pivotCache cacheId="11" r:id="rId27"/>
-    <pivotCache cacheId="12" r:id="rId28"/>
-    <pivotCache cacheId="13" r:id="rId29"/>
-    <pivotCache cacheId="14" r:id="rId30"/>
-    <pivotCache cacheId="15" r:id="rId31"/>
+    <pivotCache cacheId="0" r:id="rId17"/>
+    <pivotCache cacheId="1" r:id="rId18"/>
+    <pivotCache cacheId="2" r:id="rId19"/>
+    <pivotCache cacheId="3" r:id="rId20"/>
+    <pivotCache cacheId="4" r:id="rId21"/>
+    <pivotCache cacheId="5" r:id="rId22"/>
+    <pivotCache cacheId="6" r:id="rId23"/>
+    <pivotCache cacheId="7" r:id="rId24"/>
+    <pivotCache cacheId="8" r:id="rId25"/>
+    <pivotCache cacheId="9" r:id="rId26"/>
+    <pivotCache cacheId="10" r:id="rId27"/>
+    <pivotCache cacheId="11" r:id="rId28"/>
+    <pivotCache cacheId="12" r:id="rId29"/>
+    <pivotCache cacheId="13" r:id="rId30"/>
+    <pivotCache cacheId="14" r:id="rId31"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -125,7 +125,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -178,11 +178,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -190,14 +190,14 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -35447,7 +35447,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{838E9C96-9548-462E-9440-0E09B3C9FE45}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{838E9C96-9548-462E-9440-0E09B3C9FE45}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -35740,7 +35740,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F298F86B-DF09-4D41-94DA-622AE526C6BE}" name="PivotTable20" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F298F86B-DF09-4D41-94DA-622AE526C6BE}" name="PivotTable20" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -35861,7 +35861,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7219B1AE-C4FC-4B6D-AB9A-4E831E2BC43B}" name="PivotTable22" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7219B1AE-C4FC-4B6D-AB9A-4E831E2BC43B}" name="PivotTable22" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -35982,7 +35982,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1AF71019-F629-4E4E-97EF-1F6AFE58F299}" name="PivotTable24" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1AF71019-F629-4E4E-97EF-1F6AFE58F299}" name="PivotTable24" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -36103,7 +36103,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F7CD096-682B-4A30-ABC8-8DD2964B8F18}" name="PivotTable26" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F7CD096-682B-4A30-ABC8-8DD2964B8F18}" name="PivotTable26" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -36224,7 +36224,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F105D7B9-7946-49E0-969F-1E98BB966393}" name="PivotTable28" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F105D7B9-7946-49E0-969F-1E98BB966393}" name="PivotTable28" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -36345,7 +36345,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C411B92-52FD-420D-8428-661E17EB62E1}" name="PivotTable30" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C411B92-52FD-420D-8428-661E17EB62E1}" name="PivotTable30" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B1:C23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -36466,7 +36466,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F76BAE0-61D7-43E0-901E-8C0B8117ADEC}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F76BAE0-61D7-43E0-901E-8C0B8117ADEC}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -39708,7 +39708,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{249B16FE-79A2-4262-8108-A43E00C4ADEB}" name="PivotTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{249B16FE-79A2-4262-8108-A43E00C4ADEB}" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -39829,7 +39829,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C302F38B-0DDF-40E5-AD7A-06F59CD9FA4E}" name="PivotTable8" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C302F38B-0DDF-40E5-AD7A-06F59CD9FA4E}" name="PivotTable8" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -39950,7 +39950,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D064CFB-C01F-4FE2-88A4-6A2DE801E014}" name="PivotTable10" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D064CFB-C01F-4FE2-88A4-6A2DE801E014}" name="PivotTable10" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -40071,7 +40071,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19D9FAF9-8193-45FC-B60C-07B86033BCFF}" name="PivotTable12" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19D9FAF9-8193-45FC-B60C-07B86033BCFF}" name="PivotTable12" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -40164,7 +40164,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{474FC188-2AC3-492C-A686-D898D9575052}" name="PivotTable14" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{474FC188-2AC3-492C-A686-D898D9575052}" name="PivotTable14" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -40221,7 +40221,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B963255A-432D-4674-A9E5-EAFABFABC7E6}" name="PivotTable16" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B963255A-432D-4674-A9E5-EAFABFABC7E6}" name="PivotTable16" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -40294,7 +40294,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{40E2D13B-82EE-4C8F-8661-106E73C23214}" name="PivotTable18" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{40E2D13B-82EE-4C8F-8661-106E73C23214}" name="PivotTable18" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -40371,11 +40371,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A31B131-C51D-7649-8087-8A858F98DDBD}" name="Table1" displayName="Table1" ref="B1:C15" totalsRowShown="0" dataDxfId="0" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A31B131-C51D-7649-8087-8A858F98DDBD}" name="Table1" displayName="Table1" ref="B1:C15" totalsRowShown="0" dataDxfId="2" dataCellStyle="Comma">
   <autoFilter ref="B1:C15" xr:uid="{737FEBCF-7926-7542-9CAD-362C33ADF75E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{977D41DB-8F16-0048-9CDF-ECCA5C3D7256}" name="ctry" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{392C0187-A35C-704C-A416-D7B62162D5EA}" name="5 km reach" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{977D41DB-8F16-0048-9CDF-ECCA5C3D7256}" name="ctry" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{392C0187-A35C-704C-A416-D7B62162D5EA}" name="5 km reach" dataDxfId="0" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -40681,16 +40681,16 @@
   <dimension ref="B1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -40698,7 +40698,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
@@ -40706,7 +40706,7 @@
         <v>127507679.619298</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
@@ -40714,7 +40714,7 @@
         <v>707852005.10000002</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
@@ -40722,7 +40722,7 @@
         <v>98750043.753360003</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -40730,7 +40730,7 @@
         <v>10014243.7189794</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -40738,7 +40738,7 @@
         <v>68752050.891853794</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
@@ -40746,7 +40746,7 @@
         <v>53226847.842533305</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
@@ -40754,7 +40754,7 @@
         <v>15227.66509246826</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
@@ -40762,7 +40762,7 @@
         <v>17632031.690000001</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
@@ -40770,7 +40770,7 @@
         <v>13152631.227248801</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
@@ -40778,7 +40778,7 @@
         <v>6952255.7780122804</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
@@ -40786,7 +40786,7 @@
         <v>135594382.32200885</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
@@ -40794,15 +40794,15 @@
         <v>59955503.379096203</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="5">
-        <v>1623334.74079582</v>
+      <c r="C14" s="2">
+        <v>69564193.099030226</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
@@ -40826,13 +40826,13 @@
       <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -40840,7 +40840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -40848,7 +40848,7 @@
         <v>13152631.227248801</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -40856,7 +40856,7 @@
         <v>6133245.4701813599</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -40864,7 +40864,7 @@
         <v>1871076.7395120682</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -40872,7 +40872,7 @@
         <v>685828.30289949442</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -40880,7 +40880,7 @@
         <v>227501.45378777391</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -40888,7 +40888,7 @@
         <v>63641.368141651197</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -40896,7 +40896,7 @@
         <v>36846.065651178302</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -40904,7 +40904,7 @@
         <v>15612.49006724358</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -40912,13 +40912,13 @@
         <v>23661.989624532485</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -40939,13 +40939,13 @@
       <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -40953,7 +40953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -40961,7 +40961,7 @@
         <v>6952255.7780122804</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -40969,7 +40969,7 @@
         <v>3858475.1446608901</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -40977,7 +40977,7 @@
         <v>2721514.22977352</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -40985,7 +40985,7 @@
         <v>2425316.3519330602</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -40993,7 +40993,7 @@
         <v>2146322.1829299298</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -41001,7 +41001,7 @@
         <v>1810571.0183282532</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -41009,7 +41009,7 @@
         <v>1438621.76554668</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -41017,7 +41017,7 @@
         <v>1275441.17795956</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -41025,7 +41025,7 @@
         <v>1271466.2689070101</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -41033,7 +41033,7 @@
         <v>1292638.8444874301</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -41041,7 +41041,7 @@
         <v>1174521.4166510666</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -41049,7 +41049,7 @@
         <v>1074575.7588233899</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -41057,7 +41057,7 @@
         <v>1014179.43289018</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -41065,7 +41065,7 @@
         <v>983242.20633572305</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -41073,7 +41073,7 @@
         <v>946907.28391075099</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -41081,7 +41081,7 @@
         <v>985074.58428519999</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -41089,7 +41089,7 @@
         <v>1049065.55486178</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -41097,7 +41097,7 @@
         <v>1023390.49497238</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -41105,7 +41105,7 @@
         <v>1076311.1006490299</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -41113,13 +41113,13 @@
         <v>1079139.4790798901</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -41140,13 +41140,13 @@
       <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -41154,7 +41154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -41162,7 +41162,7 @@
         <v>135594382.32200885</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -41170,7 +41170,7 @@
         <v>34421219.562280476</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -41178,7 +41178,7 @@
         <v>17277176.15735304</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -41186,7 +41186,7 @@
         <v>12282719.179954788</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -41194,7 +41194,7 @@
         <v>8063046.3841947624</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -41202,7 +41202,7 @@
         <v>6354827.9923967132</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -41210,7 +41210,7 @@
         <v>5295835.0227263765</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -41218,7 +41218,7 @@
         <v>4474999.8421581173</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -41226,7 +41226,7 @@
         <v>3483815.5240478101</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -41234,7 +41234,7 @@
         <v>2766393.8233117987</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -41242,7 +41242,7 @@
         <v>2205057.9444442019</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -41250,7 +41250,7 @@
         <v>1699205.4301253513</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -41258,7 +41258,7 @@
         <v>1519284.8059565416</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -41266,7 +41266,7 @@
         <v>1156052.2102893447</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -41274,7 +41274,7 @@
         <v>902120.6556346307</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -41282,7 +41282,7 @@
         <v>771491.39821431134</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -41290,7 +41290,7 @@
         <v>671240.83160976681</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -41298,7 +41298,7 @@
         <v>525481.94382447808</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -41306,7 +41306,7 @@
         <v>479318.28352458082</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -41314,13 +41314,13 @@
         <v>381055.85400309425</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -41341,13 +41341,13 @@
       <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -41355,7 +41355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -41363,7 +41363,7 @@
         <v>59955503.379096203</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -41371,7 +41371,7 @@
         <v>12957824.524351325</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -41379,7 +41379,7 @@
         <v>6210361.4835503493</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -41387,7 +41387,7 @@
         <v>3716997.8164335415</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -41395,7 +41395,7 @@
         <v>2433567.7590856133</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -41403,7 +41403,7 @@
         <v>1629334.3773497301</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -41411,7 +41411,7 @@
         <v>1134519.6068516078</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -41419,7 +41419,7 @@
         <v>941173.13195162883</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -41427,7 +41427,7 @@
         <v>821811.57558828604</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -41435,7 +41435,7 @@
         <v>911917.15829026664</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -41443,7 +41443,7 @@
         <v>838522.19363722228</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -41451,7 +41451,7 @@
         <v>519403.20734769123</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -41459,7 +41459,7 @@
         <v>253222.15769549468</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -41467,7 +41467,7 @@
         <v>160605.8041231629</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -41475,7 +41475,7 @@
         <v>134278.99925351111</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -41483,7 +41483,7 @@
         <v>91577.913562178583</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -41491,7 +41491,7 @@
         <v>65873.729243725495</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -41499,7 +41499,7 @@
         <v>20645.362231254599</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -41507,7 +41507,7 @@
         <v>11886.8111667633</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -41515,13 +41515,13 @@
         <v>1464.29511445761</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -41542,13 +41542,13 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -41556,7 +41556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -41564,7 +41564,7 @@
         <v>1623334.74079582</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -41572,7 +41572,7 @@
         <v>319073.69580323366</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -41580,7 +41580,7 @@
         <v>156751.77767859824</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -41588,7 +41588,7 @@
         <v>112247.69385809213</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -41596,7 +41596,7 @@
         <v>93604.170433077641</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -41604,7 +41604,7 @@
         <v>88513.951472818357</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -41612,7 +41612,7 @@
         <v>71342.582109943585</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -41620,7 +41620,7 @@
         <v>59418.02575620087</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -41628,7 +41628,7 @@
         <v>53125.887521998375</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -41636,7 +41636,7 @@
         <v>44484.721165564551</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -41644,7 +41644,7 @@
         <v>41454.565620138172</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -41652,7 +41652,7 @@
         <v>36491.016992471312</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -41660,7 +41660,7 @@
         <v>32213.666190409604</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -41668,7 +41668,7 @@
         <v>27784.140165673991</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -41676,7 +41676,7 @@
         <v>24287.749720499429</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -41684,7 +41684,7 @@
         <v>20415.309711717884</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -41692,7 +41692,7 @@
         <v>18888.187996735825</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -41700,7 +41700,7 @@
         <v>15722.858112697506</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -41708,7 +41708,7 @@
         <v>13207.200725101899</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -41716,13 +41716,13 @@
         <v>11261.740774617196</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -41740,16 +41740,16 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -41757,7 +41757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -41765,7 +41765,7 @@
         <v>69564193.099030226</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -41773,7 +41773,7 @@
         <v>28825760.985858485</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -41781,7 +41781,7 @@
         <v>17556314.901886076</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -41789,7 +41789,7 @@
         <v>13114398.5410643</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -41797,7 +41797,7 @@
         <v>10333889.155251717</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -41805,7 +41805,7 @@
         <v>7630063.9266227186</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -41813,7 +41813,7 @@
         <v>6192267.6765305232</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -41821,7 +41821,7 @@
         <v>5034000.3995200368</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -41829,7 +41829,7 @@
         <v>4045816.2676484259</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -41837,7 +41837,7 @@
         <v>3440998.1649165931</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -41845,7 +41845,7 @@
         <v>2509784.5093023796</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -41853,7 +41853,7 @@
         <v>1899335.542796717</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -41861,7 +41861,7 @@
         <v>1618364.4497152583</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -41869,7 +41869,7 @@
         <v>1389076.3659206899</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -41877,7 +41877,7 @@
         <v>1243117.7267637528</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -41885,7 +41885,7 @@
         <v>1189264.62200679</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -41893,7 +41893,7 @@
         <v>1188832.27953121</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -41901,7 +41901,7 @@
         <v>949215.68491072999</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -41909,7 +41909,7 @@
         <v>760499.38348014001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -41917,13 +41917,13 @@
         <v>589583.88854298601</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -41941,16 +41941,16 @@
   <dimension ref="B1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -41958,7 +41958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -41966,7 +41966,7 @@
         <v>20706250.452874098</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -41974,7 +41974,7 @@
         <v>3503355.8219347773</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -41982,7 +41982,7 @@
         <v>1237062.230020883</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -41990,7 +41990,7 @@
         <v>666160.72227638401</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -41998,7 +41998,7 @@
         <v>444082.39706699492</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>6</v>
       </c>
@@ -42006,7 +42006,7 @@
         <v>352516.30241025228</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>7</v>
       </c>
@@ -42014,7 +42014,7 @@
         <v>286479.794797996</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -42022,7 +42022,7 @@
         <v>226291.33737288433</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>9</v>
       </c>
@@ -42030,7 +42030,7 @@
         <v>193862.35884650031</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -42038,7 +42038,7 @@
         <v>156121.0640214888</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>11</v>
       </c>
@@ -42046,7 +42046,7 @@
         <v>107657.13287202644</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>12</v>
       </c>
@@ -42054,7 +42054,7 @@
         <v>86095.249493911906</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>13</v>
       </c>
@@ -42062,7 +42062,7 @@
         <v>67487.502163760713</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>14</v>
       </c>
@@ -42070,7 +42070,7 @@
         <v>59921.283974751837</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>15</v>
       </c>
@@ -42078,7 +42078,7 @@
         <v>50399.757998127454</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>16</v>
       </c>
@@ -42086,7 +42086,7 @@
         <v>53463.429544597901</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>17</v>
       </c>
@@ -42094,7 +42094,7 @@
         <v>61170.554443240202</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>18</v>
       </c>
@@ -42102,7 +42102,7 @@
         <v>43427.540057893799</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>19</v>
       </c>
@@ -42110,7 +42110,7 @@
         <v>41952.257374018402</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>20</v>
       </c>
@@ -42118,13 +42118,13 @@
         <v>42035.484494553901</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
@@ -42145,13 +42145,13 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -42159,7 +42159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -42167,7 +42167,7 @@
         <v>127507679.619298</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -42175,7 +42175,7 @@
         <v>20850037.217497401</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -42183,7 +42183,7 @@
         <v>5986403.0619025026</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -42191,7 +42191,7 @@
         <v>2169147.1123816445</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -42199,7 +42199,7 @@
         <v>1039905.467107045</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -42207,7 +42207,7 @@
         <v>453037.62776816217</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -42215,7 +42215,7 @@
         <v>166327.54994054488</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -42223,7 +42223,7 @@
         <v>201970.558387728</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -42231,7 +42231,7 @@
         <v>146154.17778522882</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -42239,7 +42239,7 @@
         <v>65814.510306190612</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -42247,7 +42247,7 @@
         <v>32063.995914082901</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -42255,7 +42255,7 @@
         <v>12975.479275511567</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -42263,13 +42263,13 @@
         <v>3233.6615578830142</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -42290,13 +42290,13 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -42304,7 +42304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -42312,7 +42312,7 @@
         <v>707852005.1478579</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -42320,7 +42320,7 @@
         <v>208034709.28034377</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -42328,7 +42328,7 @@
         <v>124070704.83917099</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -42336,7 +42336,7 @@
         <v>82096433.372930795</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -42344,7 +42344,7 @@
         <v>51613630.867115699</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -42352,7 +42352,7 @@
         <v>35516277.935944632</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -42360,7 +42360,7 @@
         <v>25341475.897403244</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -42368,7 +42368,7 @@
         <v>18121507.562303212</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -42376,7 +42376,7 @@
         <v>12975661.786538981</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -42384,7 +42384,7 @@
         <v>9129850.3785254061</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -42392,7 +42392,7 @@
         <v>6423706.3293115385</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -42400,7 +42400,7 @@
         <v>4731026.1474455772</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -42408,7 +42408,7 @@
         <v>3590132.1477441685</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -42416,7 +42416,7 @@
         <v>2876393.0697876271</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -42424,7 +42424,7 @@
         <v>2049867.7716472792</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -42432,7 +42432,7 @@
         <v>1435087.0439714408</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -42440,7 +42440,7 @@
         <v>1197203.1921173036</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -42448,7 +42448,7 @@
         <v>1025906.7175965386</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -42456,7 +42456,7 @@
         <v>759598.08907400689</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -42464,13 +42464,13 @@
         <v>574154.0940523335</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -42491,13 +42491,13 @@
       <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -42505,7 +42505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -42513,7 +42513,7 @@
         <v>98750043.753360003</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -42521,7 +42521,7 @@
         <v>25731248.033897948</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -42529,7 +42529,7 @@
         <v>12312530.118700663</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -42537,7 +42537,7 @@
         <v>7314364.4372521294</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -42545,7 +42545,7 @@
         <v>4055768.778406424</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -42553,7 +42553,7 @@
         <v>2457566.7420041068</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -42561,7 +42561,7 @@
         <v>1992211.0414968892</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -42569,7 +42569,7 @@
         <v>1487176.1733910227</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -42577,7 +42577,7 @@
         <v>1245471.1587490158</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -42585,7 +42585,7 @@
         <v>772663.65628272039</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -42593,7 +42593,7 @@
         <v>596664.94669173995</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -42601,7 +42601,7 @@
         <v>569765.71146023821</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -42609,7 +42609,7 @@
         <v>551897.6097667357</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -42617,7 +42617,7 @@
         <v>455281.4058914397</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -42625,7 +42625,7 @@
         <v>473558.80534310639</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -42633,7 +42633,7 @@
         <v>336712.96612932516</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -42641,7 +42641,7 @@
         <v>193109.71768410318</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -42649,7 +42649,7 @@
         <v>96303.717960834532</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -42657,7 +42657,7 @@
         <v>69806.128577023832</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -42665,13 +42665,13 @@
         <v>23646.20522974601</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -42692,13 +42692,13 @@
       <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -42706,7 +42706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -42714,7 +42714,7 @@
         <v>10014243.7189794</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -42722,7 +42722,7 @@
         <v>2835008.0442296709</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -42730,7 +42730,7 @@
         <v>1405653.9445233843</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -42738,7 +42738,7 @@
         <v>678440.01725739555</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -42746,7 +42746,7 @@
         <v>306810.9158496462</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -42754,7 +42754,7 @@
         <v>133581.88610265107</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -42762,7 +42762,7 @@
         <v>76357.669955259218</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -42770,7 +42770,7 @@
         <v>36364.65680153283</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -42778,7 +42778,7 @@
         <v>14361.457238787534</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -42786,7 +42786,7 @@
         <v>10244.635617682768</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -42794,7 +42794,7 @@
         <v>5801.1620822597506</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -42802,7 +42802,7 @@
         <v>2734.6784184873063</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -42810,7 +42810,7 @@
         <v>2152.6994256675248</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -42818,7 +42818,7 @@
         <v>924.86625027656601</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -42826,7 +42826,7 @@
         <v>78.414458751678495</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -42834,7 +42834,7 @@
         <v>57.065878957510002</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -42842,7 +42842,7 @@
         <v>44.974496036768002</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -42850,7 +42850,7 @@
         <v>46.443079173564897</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -42858,7 +42858,7 @@
         <v>43.7147722840309</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -42866,13 +42866,13 @@
         <v>36.290448591113098</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -42893,13 +42893,13 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -42907,7 +42907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -42915,7 +42915,7 @@
         <v>68752050.891853794</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -42923,7 +42923,7 @@
         <v>12992143.669600345</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -42931,7 +42931,7 @@
         <v>5048939.343080489</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -42939,7 +42939,7 @@
         <v>2283679.8443571348</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -42947,7 +42947,7 @@
         <v>1143346.3257825272</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -42955,7 +42955,7 @@
         <v>462959.33042449382</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -42963,7 +42963,7 @@
         <v>152154.50726795226</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -42971,7 +42971,7 @@
         <v>84163.304955005602</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -42979,7 +42979,7 @@
         <v>43074.223216772101</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -42987,7 +42987,7 @@
         <v>25604.758371114702</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -42995,7 +42995,7 @@
         <v>19475.194448471098</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -43003,7 +43003,7 @@
         <v>23886.5435380936</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -43011,7 +43011,7 @@
         <v>19513.582298517202</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -43019,7 +43019,7 @@
         <v>17553.622292518601</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -43027,7 +43027,7 @@
         <v>17727.644387722001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -43035,7 +43035,7 @@
         <v>19778.426199674599</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -43043,7 +43043,7 @@
         <v>19507.4915142059</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -43051,7 +43051,7 @@
         <v>27088.1179684401</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -43059,7 +43059,7 @@
         <v>23174.650678157799</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -43067,13 +43067,13 @@
         <v>15662.2828123569</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -43094,13 +43094,13 @@
       <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -43108,7 +43108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -43116,7 +43116,7 @@
         <v>53226847.842533305</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -43124,7 +43124,7 @@
         <v>9359994.1279398464</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -43132,7 +43132,7 @@
         <v>2810254.3228715067</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -43140,7 +43140,7 @@
         <v>1050348.1794464716</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -43148,7 +43148,7 @@
         <v>460126.26193136309</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -43156,7 +43156,7 @@
         <v>253778.67289483812</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -43164,7 +43164,7 @@
         <v>163497.81732866212</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -43172,7 +43172,7 @@
         <v>36478.640055268945</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -43180,7 +43180,7 @@
         <v>23018.765193060044</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -43188,7 +43188,7 @@
         <v>20873.407033851308</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -43196,7 +43196,7 @@
         <v>5428.16600906849</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -43204,7 +43204,7 @@
         <v>1727.179612517356</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -43212,13 +43212,13 @@
         <v>25.116772413253798</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -43239,13 +43239,13 @@
       <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -43253,7 +43253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -43261,7 +43261,7 @@
         <v>15227.66509246826</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -43269,7 +43269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -43277,7 +43277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -43285,13 +43285,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -43312,13 +43312,13 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -43326,7 +43326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -43334,7 +43334,7 @@
         <v>17632031.694674201</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -43342,7 +43342,7 @@
         <v>1569321.9921916896</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -43350,7 +43350,7 @@
         <v>532288.03055469692</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -43358,7 +43358,7 @@
         <v>220643.79218429333</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -43366,7 +43366,7 @@
         <v>98637.192334115563</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -43374,7 +43374,7 @@
         <v>33502.932207837672</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -43382,7 +43382,7 @@
         <v>11887.584969580192</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -43390,13 +43390,13 @@
         <v>2890.4541208743999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
